--- a/thesis/Thesis-MSC/src/measurements.xlsx
+++ b/thesis/Thesis-MSC/src/measurements.xlsx
@@ -174,11 +174,7 @@
               <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>studentsOfSchool</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
+              <a:t>studentsOfSchool </a:t>
             </a:r>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
@@ -235,7 +231,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -244,7 +240,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -285,72 +293,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++ Runtime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>46321</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97109</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>240721</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -363,7 +307,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -372,7 +316,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -410,11 +366,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -427,7 +383,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -436,7 +392,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -474,7 +442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -484,12 +452,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1690564096"/>
-        <c:axId val="1839978736"/>
+        <c:axId val="1705250272"/>
+        <c:axId val="1705250816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1690564096"/>
+        <c:axId val="1705250272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +561,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839978736"/>
+        <c:crossAx val="1705250816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1839978736"/>
+        <c:axId val="1705250816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -688,7 +657,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -719,7 +688,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1690564096"/>
+        <c:crossAx val="1705250272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -813,6 +782,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -834,12 +804,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="hu-HU"/>
               <a:t>classesOfTeacher</a:t>
             </a:r>
-            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -894,7 +861,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -903,7 +870,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -944,72 +923,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++ Runtime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>979</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4673</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -1022,7 +937,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1031,7 +946,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1069,11 +996,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -1086,7 +1013,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1095,7 +1022,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1133,7 +1072,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1143,12 +1082,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1839967856"/>
-        <c:axId val="1839979824"/>
+        <c:axId val="12918096"/>
+        <c:axId val="12928976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1839967856"/>
+        <c:axId val="12918096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,13 +1114,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>model</a:t>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>model scale</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU" baseline="0"/>
-                  <a:t> scale</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1251,7 +1192,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839979824"/>
+        <c:crossAx val="12928976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1839979824"/>
+        <c:axId val="12928976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1301,19 +1242,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>time (</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>μ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>s)</a:t>
                 </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1347,7 +1295,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1378,7 +1326,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839967856"/>
+        <c:crossAx val="12918096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,6 +1420,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1493,12 +1442,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="hu-HU"/>
               <a:t>students</a:t>
             </a:r>
-            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1553,7 +1499,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1562,7 +1508,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1603,72 +1561,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++ Runtime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>37280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84543</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>174621</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -1681,7 +1575,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1690,7 +1584,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1728,11 +1634,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -1745,16 +1651,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="31000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:srgbClr val="5B9BD5">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow>
+                  <a:srgbClr val="5B9BD5">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1802,12 +1734,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1839980368"/>
-        <c:axId val="1839970032"/>
+        <c:axId val="183871152"/>
+        <c:axId val="183867888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1839980368"/>
+        <c:axId val="183871152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,13 +1766,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>model</a:t>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>model scale</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU" baseline="0"/>
-                  <a:t> scale</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1910,7 +1844,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839970032"/>
+        <c:crossAx val="183867888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,7 +1852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1839970032"/>
+        <c:axId val="183867888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1960,25 +1894,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>time (</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>μ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="hu-HU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>s</a:t>
+                  <a:t>s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>)</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2012,7 +1947,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2043,7 +1978,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839980368"/>
+        <c:crossAx val="183871152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2137,6 +2072,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2158,12 +2094,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="hu-HU"/>
               <a:t>mutualFriendsInSchool</a:t>
             </a:r>
-            <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2218,7 +2151,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2227,7 +2160,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2268,72 +2213,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++ Runtime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2082.9899999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3527.7008000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6529.7493000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -2346,7 +2227,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2355,7 +2236,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2393,11 +2286,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -2410,7 +2303,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -2419,7 +2312,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2457,7 +2362,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2467,12 +2372,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1839972752"/>
-        <c:axId val="1839977104"/>
+        <c:axId val="12906672"/>
+        <c:axId val="12925712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1839972752"/>
+        <c:axId val="12906672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,13 +2404,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>model</a:t>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>model scale</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU" baseline="0"/>
-                  <a:t> scale</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2575,7 +2482,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839977104"/>
+        <c:crossAx val="12925712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2583,7 +2490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1839977104"/>
+        <c:axId val="12925712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2625,19 +2532,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>time (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>ms</a:t>
+                  <a:t>time (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>)</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2671,7 +2573,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2702,7 +2604,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839972752"/>
+        <c:crossAx val="12906672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2796,6 +2698,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2817,9 +2720,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="hu-HU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="hu-HU"/>
               <a:t>second run of query</a:t>
             </a:r>
           </a:p>
@@ -2876,7 +2777,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2885,7 +2786,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2926,72 +2839,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++ Runtime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4630</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -3004,7 +2853,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3013,7 +2862,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3051,11 +2912,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -3068,7 +2929,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -3077,7 +2938,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -3115,7 +2988,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3125,12 +2998,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1839974384"/>
-        <c:axId val="1839966768"/>
+        <c:axId val="183871696"/>
+        <c:axId val="183872784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1839974384"/>
+        <c:axId val="183871696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3142,13 +3016,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3156,13 +3044,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>model</a:t>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>model scale</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU" baseline="0"/>
-                  <a:t> scale</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3179,13 +3068,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3233,7 +3136,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839966768"/>
+        <c:crossAx val="183872784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3241,7 +3144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1839966768"/>
+        <c:axId val="183872784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3283,25 +3186,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="hu-HU"/>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>time (</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>μ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="hu-HU" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>s</a:t>
+                  <a:t>s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="hu-HU"/>
-                  <a:t>)</a:t>
-                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3335,7 +3239,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3366,7 +3270,581 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839974384"/>
+        <c:crossAx val="183871696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>runtime vs iterator</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C++ Runtime</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37280</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>174621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>C++ Iterator</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="177785296"/>
+        <c:axId val="177765168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="177785296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>model scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177765168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177765168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="hu-HU" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="hu-HU" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177785296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3647,6 +4125,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5712,6 +6230,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6387,6 +7421,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>308112</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>83527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6651,12 +7717,1272 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7130,6 +9456,20 @@
       </c>
       <c r="E19">
         <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B15:B19)</f>
+        <v>137984</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:D20" si="2">SUM(C15:C19)</f>
+        <v>275968</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>551936</v>
       </c>
     </row>
   </sheetData>
